--- a/TP1_2021i_-_Documentación/TP1 2021i - Pruebas y resultados.xlsx
+++ b/TP1_2021i_-_Documentación/TP1 2021i - Pruebas y resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaraya\OneDrive - TEC\IC-4302 Bases de datos II\Tareas programadas\Tareas programadas anteriores\2018-1 TP1 - Subastas en línea - Oracle PosgreSql\Tarea programada 1 - documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documentos\GitHub\Proyecto1-BDII\TP1_2021i_-_Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_EF5A7453C591A50A00817985EAAEFAEDA2020414" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0E4F56C7-439B-417E-8843-6E965BD2A2A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985E381A-F662-4455-ABCB-0AA0242EFA27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5880" tabRatio="355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
   <si>
     <t>Betina Guardado Samaniego</t>
   </si>
@@ -578,12 +578,24 @@
   <si>
     <t>Aplicación</t>
   </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>No deja pujar 130000 porque la formula dada pide mínimo 131250</t>
+  </si>
+  <si>
+    <t>No se implementaron los telefonos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +632,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -819,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -970,6 +990,31 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -979,26 +1024,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1009,40 +1048,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1059,6 +1080,560 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805B1A3C-80A7-4973-BFBF-2726FB480A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11642911" y="1714500"/>
+          <a:ext cx="6768353" cy="3059206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>683559</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>328893</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>356907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03808721-87B2-42FE-BF8D-7C88CD324970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12651441" y="4773706"/>
+          <a:ext cx="2693334" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>291352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>337858</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D01D503-C4C5-401C-8554-F0255B1B7D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12774706" y="6432176"/>
+          <a:ext cx="3341034" cy="1574987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>728383</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>316567</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>318808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C587D15-08AF-4D03-A7A0-F3E72E15EC7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16506265" y="4941795"/>
+          <a:ext cx="4160184" cy="1517837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>445994</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>179854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74BB575-1741-4891-BCAC-161A3E2A418F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11093823" y="8706970"/>
+          <a:ext cx="8940053" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>334495</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>169770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D836CC-B7CF-482D-BE22-5AAA5543A1A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20372293" y="8796618"/>
+          <a:ext cx="4122084" cy="1536887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>702608</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>145116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF1D017-C282-4846-A020-22694ED425FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11508440" y="13592735"/>
+          <a:ext cx="5734050" cy="2744881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE042B9-535E-4C23-A6FC-7166D49F12D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11972925" y="16544925"/>
+          <a:ext cx="5734050" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477B2CD5-7E95-4D28-8AEA-01ED99BED550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11972925" y="18449925"/>
+          <a:ext cx="4067175" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1399,7 +1974,7 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="58" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -1443,12 +2018,12 @@
     <row r="6" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="82"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
@@ -1686,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I73"/>
+  <dimension ref="B2:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,22 +2280,22 @@
     <col min="9" max="9" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+    <row r="2" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="65" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" s="25" t="s">
         <v>146</v>
       </c>
@@ -1730,36 +2305,36 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="66" t="s">
+    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
+    <row r="7" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:9" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
         <v>73</v>
       </c>
@@ -1785,7 +2360,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>0</v>
       </c>
@@ -1798,90 +2373,95 @@
       <c r="H10" s="1"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="2:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="G12" s="58" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="G13" s="59"/>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="68"/>
+      <c r="G13" s="68"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="G14" s="60"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="69"/>
+      <c r="G14" s="69"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="G16" s="58"/>
+      <c r="E16" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="67"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="G17" s="59"/>
+      <c r="E17" s="68"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="G18" s="59"/>
+      <c r="E18" s="68"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="G19" s="59"/>
+      <c r="E19" s="68"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="E20" s="68"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="G21" s="60"/>
+      <c r="E21" s="69"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
@@ -1893,9 +2473,11 @@
       <c r="C23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="I23" s="61" t="s">
+      <c r="E23" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="67"/>
+      <c r="I23" s="64" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1903,33 +2485,33 @@
       <c r="C24" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="I24" s="62"/>
+      <c r="E24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="I24" s="65"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="I25" s="62"/>
+      <c r="E25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="I26" s="62"/>
+      <c r="E26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="I26" s="65"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="I27" s="63"/>
+      <c r="E27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="I27" s="66"/>
     </row>
     <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
@@ -1941,22 +2523,24 @@
       <c r="C29" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="G29" s="58"/>
+      <c r="E29" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="E30" s="68"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="E31" s="69"/>
+      <c r="G31" s="69"/>
     </row>
     <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
@@ -1968,29 +2552,31 @@
       <c r="C33" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="G33" s="58"/>
+      <c r="E33" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C34" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="G34" s="59"/>
+      <c r="E34" s="68"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C35" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="G35" s="59"/>
+      <c r="E35" s="68"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="G36" s="60"/>
+      <c r="E36" s="69"/>
+      <c r="G36" s="69"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
@@ -2002,9 +2588,11 @@
       <c r="C38" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="I38" s="61" t="s">
+      <c r="E38" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="67"/>
+      <c r="I38" s="64" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2012,57 +2600,57 @@
       <c r="C39" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="I39" s="62"/>
+      <c r="E39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="I39" s="65"/>
     </row>
     <row r="40" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="I40" s="62"/>
+      <c r="E40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="I40" s="65"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C41" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="I41" s="65"/>
     </row>
     <row r="42" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C42" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="I42" s="65"/>
     </row>
     <row r="43" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C43" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="I43" s="62"/>
+      <c r="E43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="I43" s="65"/>
     </row>
     <row r="44" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C44" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="I44" s="62"/>
+      <c r="E44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="I44" s="65"/>
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="I45" s="63"/>
+      <c r="E45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="I45" s="66"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
@@ -2074,29 +2662,31 @@
       <c r="C47" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="G47" s="58"/>
+      <c r="E47" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C48" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="59"/>
-      <c r="G48" s="59"/>
+      <c r="E48" s="68"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C49" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="G49" s="59"/>
+      <c r="E49" s="68"/>
+      <c r="G49" s="68"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="60"/>
-      <c r="G50" s="60"/>
+      <c r="E50" s="69"/>
+      <c r="G50" s="69"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
@@ -2108,22 +2698,24 @@
       <c r="C52" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="58"/>
-      <c r="G52" s="58"/>
+      <c r="E52" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C53" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="59"/>
-      <c r="G53" s="59"/>
+      <c r="E53" s="68"/>
+      <c r="G53" s="68"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="60"/>
-      <c r="G54" s="60"/>
+      <c r="E54" s="69"/>
+      <c r="G54" s="69"/>
     </row>
     <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
@@ -2135,9 +2727,11 @@
       <c r="C56" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="58"/>
+      <c r="E56" s="67" t="s">
+        <v>153</v>
+      </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="58"/>
+      <c r="G56" s="67"/>
       <c r="H56" s="7"/>
       <c r="I56"/>
     </row>
@@ -2145,22 +2739,22 @@
       <c r="C57" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="59"/>
-      <c r="G57" s="59"/>
+      <c r="E57" s="68"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C58" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="59"/>
-      <c r="G58" s="59"/>
+      <c r="E58" s="68"/>
+      <c r="G58" s="68"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E59" s="60"/>
-      <c r="G59" s="60"/>
+      <c r="E59" s="69"/>
+      <c r="G59" s="69"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
@@ -2172,9 +2766,11 @@
       <c r="C61" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="I61" s="61" t="s">
+      <c r="E61" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="67"/>
+      <c r="I61" s="64" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2182,41 +2778,41 @@
       <c r="C62" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="I62" s="62"/>
+      <c r="E62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="I62" s="65"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C63" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="I63" s="62"/>
+      <c r="E63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="I63" s="65"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="I64" s="62"/>
+      <c r="E64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="I64" s="65"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C65" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="I65" s="62"/>
+      <c r="E65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="I65" s="65"/>
     </row>
     <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="I66" s="63"/>
+      <c r="E66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="I66" s="66"/>
     </row>
     <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67" s="2"/>
@@ -2228,29 +2824,31 @@
       <c r="C68" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E68" s="58"/>
-      <c r="G68" s="58"/>
+      <c r="E68" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G68" s="67"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C69" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="59"/>
-      <c r="G69" s="59"/>
+      <c r="E69" s="68"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C70" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="59"/>
-      <c r="G70" s="59"/>
+      <c r="E70" s="68"/>
+      <c r="G70" s="68"/>
     </row>
     <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C71" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="60"/>
-      <c r="G71" s="60"/>
+      <c r="E71" s="69"/>
+      <c r="G71" s="69"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C72" s="35"/>
@@ -2262,18 +2860,11 @@
       <c r="E73" s="36"/>
       <c r="G73" s="36"/>
     </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I89" s="83"/>
+    </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="I38:I45"/>
-    <mergeCell ref="I61:I66"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E61:E66"/>
     <mergeCell ref="E68:E71"/>
     <mergeCell ref="G56:G59"/>
     <mergeCell ref="G61:G66"/>
@@ -2288,14 +2879,25 @@
     <mergeCell ref="G33:G36"/>
     <mergeCell ref="G38:G45"/>
     <mergeCell ref="G47:G50"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="I61:I66"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E61:E66"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="I38:I45"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="E16:E21"/>
     <mergeCell ref="G16:G21"/>
-    <mergeCell ref="G52:G54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2330,10 +2932,10 @@
       <c r="C4" s="38"/>
       <c r="D4" s="40"/>
       <c r="E4" s="38"/>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="80"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="2:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="41" t="s">
@@ -2349,13 +2951,13 @@
       <c r="G5" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" s="44" t="s">
@@ -2385,11 +2987,11 @@
         <v>122</v>
       </c>
       <c r="G7" s="49"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="70"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" s="30" t="s">
@@ -2402,22 +3004,22 @@
         <v>122</v>
       </c>
       <c r="G8" s="49"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" s="30"/>
       <c r="D9" s="31"/>
       <c r="F9" s="50"/>
       <c r="G9" s="51"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" s="30" t="s">
@@ -2430,11 +3032,11 @@
         <v>122</v>
       </c>
       <c r="G10" s="49"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="77"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" s="30" t="s">
@@ -2447,22 +3049,22 @@
         <v>122</v>
       </c>
       <c r="G11" s="49"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="77"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" s="30"/>
       <c r="D12" s="31"/>
       <c r="F12" s="50"/>
       <c r="G12" s="51"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="70"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="77"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="30" t="s">
@@ -2475,11 +3077,11 @@
       <c r="G13" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="77"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" s="30" t="s">
@@ -2492,22 +3094,22 @@
       <c r="G14" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="31"/>
       <c r="F15" s="50"/>
       <c r="G15" s="51"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="77"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C16" s="30" t="s">
@@ -2522,11 +3124,11 @@
       <c r="G16" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="77"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="30" t="s">
@@ -2541,11 +3143,11 @@
       <c r="G17" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="77"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="30" t="s">
@@ -2560,11 +3162,11 @@
       <c r="G18" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
     </row>
     <row r="19" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="32" t="s">
@@ -2579,11 +3181,11 @@
       <c r="G19" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="77"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="80"/>
     </row>
     <row r="22" spans="3:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="54" t="s">
@@ -2593,13 +3195,13 @@
         <v>132</v>
       </c>
       <c r="E22" s="56"/>
-      <c r="F22" s="78" t="s">
+      <c r="F22" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="57" t="s">
@@ -2621,11 +3223,11 @@
       <c r="D24" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="77"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="30" t="s">
@@ -2634,11 +3236,11 @@
       <c r="D25" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="77"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="30" t="s">
@@ -2647,11 +3249,11 @@
       <c r="D26" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="70"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="77"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="30" t="s">
@@ -2660,11 +3262,11 @@
       <c r="D27" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="70"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="77"/>
     </row>
     <row r="28" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="32" t="s">
@@ -2673,25 +3275,26 @@
       <c r="D28" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="77"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="I8:M8"/>
     <mergeCell ref="F27:J27"/>
     <mergeCell ref="F28:J28"/>
     <mergeCell ref="F22:J22"/>
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="I19:M19"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="I14:M14"/>
@@ -2703,7 +3306,6 @@
     <mergeCell ref="I5:M5"/>
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
